--- a/files/soil-health-template.xlsx
+++ b/files/soil-health-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maegensimmonds/projects/UCANR/organic-think-tank-reports/soil-health-shiny/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1987799415743/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96137471-F1A8-534C-98BD-A2268E55A93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{96137471-F1A8-534C-98BD-A2268E55A93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53DBA289-D396-4B76-AFE9-B4DF2FC8B65E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30060" yWindow="1860" windowWidth="25740" windowHeight="12615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="122">
   <si>
     <t>Instructions.for.using.this.template</t>
   </si>
@@ -56,21 +56,12 @@
     <t>• sample_id: A unique identifier for each soil sample (can be any alphanumeric value or a combination of year, producer_id, and field_id).</t>
   </si>
   <si>
-    <t>• producer_id: Reports are generated for each producer_id in a given year. This can be an alphanumeric value or the producer’s name. Note: The tool does not currently support comparisons of soil samples over time.</t>
-  </si>
-  <si>
-    <t>• field_id: Used to distinguish between different fields if a producer has multiple samples in the same year. This should be unique within a producer_id and year combination and can be any alphanumeric value or a field name assigned by the producer.</t>
-  </si>
-  <si>
     <t>How do I fill out the Data tab?</t>
   </si>
   <si>
     <t>1. Review the example data structure and prepare your project’s data accordingly.</t>
   </si>
   <si>
-    <t>2. Metadata (columns A–I: year through latitude) should not be deleted:</t>
-  </si>
-  <si>
     <t xml:space="preserve">    • Metadata columns with bold headers must not contain blanks. Replace example values with your own data.</t>
   </si>
   <si>
@@ -372,13 +363,40 @@
   </si>
   <si>
     <t>treatment_id</t>
+  </si>
+  <si>
+    <t>open_id1</t>
+  </si>
+  <si>
+    <t>open_id2</t>
+  </si>
+  <si>
+    <t>open_id3</t>
+  </si>
+  <si>
+    <t>open_id4</t>
+  </si>
+  <si>
+    <t>open_id5</t>
+  </si>
+  <si>
+    <t>2. Metadata (columns A–O: year through latitude) should not be deleted:</t>
+  </si>
+  <si>
+    <t>• field_id AND/OR treatment_id : Used to distinguish between different fields or treatments if a producer has multiple samples in the same year. This should be unique within a producer_id and year combination and can be any alphanumeric value or a field name assigned by the producer. If a treatment_id is also included, it will be used instead of the field_id.</t>
+  </si>
+  <si>
+    <t>• producer_id AND/OR farm_name: Reports are generated for each producer_id or farm_name in a given year. This can be an alphanumeric value or the producer’s name. If a farm_name column is included, the app will use that. Note: The tool does not currently support comparisons of soil samples over time.</t>
+  </si>
+  <si>
+    <t>• open_id1:5 : Used to further distinguish samples. If these columns are filled in, they will be used to identify samples in the summary table and will prevent averaging across multiple sample IDs. These ID columns can be used for dinguishing sampling locations (e.g. in-row vs alley), or any other project-specific identifiers that distinguish among samples.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +408,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -415,11 +439,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,155 +752,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -882,148 +922,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AP1"/>
+  <dimension ref="A1:AU1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="8.77734375" style="3"/>
+    <col min="17" max="47" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>69</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1034,436 +1092,436 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D6" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
         <v>74</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
         <v>74</v>
       </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
         <v>74</v>
       </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>111</v>
-      </c>
-      <c r="D29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/files/soil-health-template.xlsx
+++ b/files/soil-health-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1987799415743/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{96137471-F1A8-534C-98BD-A2268E55A93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53DBA289-D396-4B76-AFE9-B4DF2FC8B65E}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{96137471-F1A8-534C-98BD-A2268E55A93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47703A2A-1B0F-439D-9460-7E9CD7C32818}"/>
   <bookViews>
     <workbookView xWindow="30060" yWindow="1860" windowWidth="25740" windowHeight="12615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
   <si>
     <t>Instructions.for.using.this.template</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>• open_id1:5 : Used to further distinguish samples. If these columns are filled in, they will be used to identify samples in the summary table and will prevent averaging across multiple sample IDs. These ID columns can be used for dinguishing sampling locations (e.g. in-row vs alley), or any other project-specific identifiers that distinguish among samples.</t>
+  </si>
+  <si>
+    <t>soil_moisture_regime</t>
   </si>
 </sst>
 </file>
@@ -754,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,10 +925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AU1"/>
+  <dimension ref="A1:AV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,10 +937,10 @@
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="8.77734375" style="3"/>
-    <col min="17" max="47" width="8.77734375" style="3"/>
+    <col min="18" max="48" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -983,100 +986,103 @@
       <c r="O1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>66</v>
       </c>
     </row>

--- a/files/soil-health-template.xlsx
+++ b/files/soil-health-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maegensimmonds/projects/UCANR/ca-soil-health-reports-clean/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7339D71-3427-6548-9820-F108A118B84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680EADB5-A787-2144-A9AB-A60D93DB5FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5720" yWindow="500" windowWidth="45480" windowHeight="22800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
